--- a/downloaded_files/EPES404_Lecture-35403.xlsx
+++ b/downloaded_files/EPES404_Lecture-35403.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Ahmed Mohamed Shawkey Eltohamyy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الاء محمود الحسين عبدالعال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaa Mahmoud Elhussein Abdelaal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220004</x:t>
   </x:si>
   <x:si>
@@ -211,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mawad Abdeltawab Awad Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم مجدى محمد احمد ايوب</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mariam Magdy Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1220104</x:t>
@@ -395,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -882,7 +900,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4147317477</x:v>
+        <x:v>45927.4152961458</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -914,7 +932,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6653541667</x:v>
+        <x:v>45907.4147317477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -946,7 +964,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646043171</x:v>
+        <x:v>45906.6653541667</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -978,7 +996,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4161179051</x:v>
+        <x:v>45906.6646043171</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1010,7 +1028,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6643803588</x:v>
+        <x:v>45909.4161179051</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1042,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45906.6643803588</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1074,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4164559838</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1106,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45907.4164559838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1138,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4149820602</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1170,7 +1188,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45909.4149820602</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1202,7 +1220,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1234,7 +1252,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1266,7 +1284,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1298,7 +1316,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1330,7 +1348,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6660294792</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1362,7 +1380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.6660294792</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1394,7 +1412,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4193753472</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1426,7 +1444,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45907.4193753472</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1458,7 +1476,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6803590278</x:v>
+        <x:v>45927.4576959491</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1490,7 +1508,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1518,9 +1536,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.6803590278</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,16 +1563,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,16 +1595,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.7525673611</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1683,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45912.7525673611</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
